--- a/data/trans_dic/P1416-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1416-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04719443721121327</v>
+        <v>0.0483665600582219</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03893686865308617</v>
+        <v>0.03920044123019903</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03284321633338256</v>
+        <v>0.03213174280931014</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08700779686886687</v>
+        <v>0.08485743730924643</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07216459456014376</v>
+        <v>0.07158503549342451</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0732119171125209</v>
+        <v>0.07381095006706581</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06721686543247028</v>
+        <v>0.06716699368164646</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1265988956977604</v>
+        <v>0.1301478852080125</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06809598744786088</v>
+        <v>0.06758297877526857</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06093017092088415</v>
+        <v>0.06117548257491651</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05278890520238992</v>
+        <v>0.0543210383924227</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1172903454715894</v>
+        <v>0.1177258435348894</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09127305513726132</v>
+        <v>0.09069846762217142</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06728782817605714</v>
+        <v>0.06788625090993326</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05560012349038921</v>
+        <v>0.05662121404842514</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1469407943451007</v>
+        <v>0.1479180434327415</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1095457491574643</v>
+        <v>0.1110335971155116</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1094353514778109</v>
+        <v>0.1100299921853846</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09990149222724497</v>
+        <v>0.09920484866098538</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1804017764398582</v>
+        <v>0.1821645862962684</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.09563054383756879</v>
+        <v>0.09761545241499014</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.08437635476443012</v>
+        <v>0.08419799135630907</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07365129540267938</v>
+        <v>0.07423050348670206</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1563710467218715</v>
+        <v>0.155449287025791</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.0646898969849958</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.08864968691450756</v>
+        <v>0.08864968691450757</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06021179279733205</v>
+        <v>0.061669651454091</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02986683905497688</v>
+        <v>0.03002514622552553</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03827650906743334</v>
+        <v>0.03607140554291243</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05672029793430929</v>
+        <v>0.05602271560847785</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08717203274254968</v>
+        <v>0.08741952328572652</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05329201801304419</v>
+        <v>0.05275991763080695</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06183457227048633</v>
+        <v>0.06176592857536443</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08668549270955064</v>
+        <v>0.08867816745566355</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07906717224938317</v>
+        <v>0.07978604607236792</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04596633604098874</v>
+        <v>0.04561960435138784</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05413895997322532</v>
+        <v>0.05491854605761208</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07750808374816824</v>
+        <v>0.07763169068473345</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0942868043325001</v>
+        <v>0.09459997676923808</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05737702613155254</v>
+        <v>0.05697877595585755</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06579387327028517</v>
+        <v>0.06701593986034031</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09374014512732026</v>
+        <v>0.0944514165635708</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1257604969181327</v>
+        <v>0.126327688752392</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08510018895151493</v>
+        <v>0.08365659576001964</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09571923667638194</v>
+        <v>0.09800827637677767</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1185543038028621</v>
+        <v>0.1207152615990655</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.103616563478555</v>
+        <v>0.1053753837619717</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06753894581783444</v>
+        <v>0.0668324492318879</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07675428631238486</v>
+        <v>0.07692413516705859</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.101684812424947</v>
+        <v>0.1024256222221885</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.0581446220390442</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.09326983807745524</v>
+        <v>0.09326983807745522</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.08250307277637839</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04609412091335471</v>
+        <v>0.04532878942247428</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04332600535278058</v>
+        <v>0.0444706175690801</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04353754575579368</v>
+        <v>0.04312013365259693</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07426801973028836</v>
+        <v>0.07388785049950589</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06722980961877502</v>
+        <v>0.06597902812041198</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04323115336100322</v>
+        <v>0.04302721546216846</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.057602991281863</v>
+        <v>0.05864101486378333</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09661006233742309</v>
+        <v>0.09450847971383995</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05902026942899641</v>
+        <v>0.06000838070741614</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04814327931030853</v>
+        <v>0.04636659852041116</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05363226401868428</v>
+        <v>0.05461438435569412</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08927279810915556</v>
+        <v>0.0891073678371654</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07503076282554084</v>
+        <v>0.0746495401701168</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0737888024005036</v>
+        <v>0.07605222403596806</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0766405268260258</v>
+        <v>0.07578574217238773</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.116453963368093</v>
+        <v>0.1148795365372418</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1029932716765438</v>
+        <v>0.1017063200623638</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07329619679826846</v>
+        <v>0.07371317646954781</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.09392113692500074</v>
+        <v>0.09631107013863006</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1306172897838646</v>
+        <v>0.129929338709537</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08131586216051417</v>
+        <v>0.08118380106696037</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07013707258568085</v>
+        <v>0.06985189983300891</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0790853727782149</v>
+        <v>0.07967952807011917</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1175489423493206</v>
+        <v>0.1179690896117627</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04622788877188537</v>
+        <v>0.04648406006585751</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03470357856475986</v>
+        <v>0.03517149338875544</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03417741195461868</v>
+        <v>0.03215568441973669</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09752190903156358</v>
+        <v>0.09774915007034352</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0833361940434285</v>
+        <v>0.08676330447607453</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05431917973202649</v>
+        <v>0.05478990191909806</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05573352389519014</v>
+        <v>0.05579694107752214</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1104314604170579</v>
+        <v>0.1101518404523426</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07159148830251516</v>
+        <v>0.07087816025539619</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05135914365616438</v>
+        <v>0.05032014595616724</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05121031623370554</v>
+        <v>0.05026765513123795</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1085402950116575</v>
+        <v>0.1084328106884261</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09531567862596807</v>
+        <v>0.09462983047003325</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07883654741750037</v>
+        <v>0.08198897823710601</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07554281649539873</v>
+        <v>0.07670963573463641</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1480547624557549</v>
+        <v>0.147702619541278</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1558703987525365</v>
+        <v>0.1566011004062424</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1079324372620477</v>
+        <v>0.1090092407936883</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1101038386024321</v>
+        <v>0.108868836506797</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1478797196283667</v>
+        <v>0.150655299457344</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1142210410498407</v>
+        <v>0.1109028855423173</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08402509820873834</v>
+        <v>0.08484999741295016</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08366209226190244</v>
+        <v>0.08289561547278153</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1402424056126891</v>
+        <v>0.1415465127150359</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05928428908491314</v>
+        <v>0.05831317509660294</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04412960691337488</v>
+        <v>0.04381527144296931</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04313109778161319</v>
+        <v>0.04192252406195277</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08658845355518487</v>
+        <v>0.08741907537458674</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0848896655010852</v>
+        <v>0.08521583685186049</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06408135399519575</v>
+        <v>0.06433754478713426</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07038422944587965</v>
+        <v>0.06994596589000707</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1098865195345066</v>
+        <v>0.1100482382207487</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0757078632337285</v>
+        <v>0.07502875800729172</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05684695707707706</v>
+        <v>0.05626476334942781</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05876693766810725</v>
+        <v>0.05907140176455855</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1020309576115071</v>
+        <v>0.1023554107425915</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07722238533054712</v>
+        <v>0.07659531833143468</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05984269455687533</v>
+        <v>0.05978600631596661</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.058112305177292</v>
+        <v>0.05766463864935759</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.110841567618555</v>
+        <v>0.1098555134244126</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.106158811508296</v>
+        <v>0.1058046564872157</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08256168175319609</v>
+        <v>0.08368569653714737</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.08876517752097354</v>
+        <v>0.08823128370450052</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1291589342831287</v>
+        <v>0.1293628160696718</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08837725053597427</v>
+        <v>0.0883964923656374</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0683140197785814</v>
+        <v>0.06833984965349976</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0706080682369553</v>
+        <v>0.07051348802675743</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1169841451177096</v>
+        <v>0.1172250701709609</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>27568</v>
+        <v>28253</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>40648</v>
+        <v>40923</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>37047</v>
+        <v>36245</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>43071</v>
+        <v>42007</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>66560</v>
+        <v>66025</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>81899</v>
+        <v>82569</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>84664</v>
+        <v>84601</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>78859</v>
+        <v>81070</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>102585</v>
+        <v>101812</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>131767</v>
+        <v>132297</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>126037</v>
+        <v>129695</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>131122</v>
+        <v>131609</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>53316</v>
+        <v>52981</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>70244</v>
+        <v>70869</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>62717</v>
+        <v>63869</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>72739</v>
+        <v>73223</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>101038</v>
+        <v>102410</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>122420</v>
+        <v>123085</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>125832</v>
+        <v>124955</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>112373</v>
+        <v>113471</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>144065</v>
+        <v>147055</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>182471</v>
+        <v>182086</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>175847</v>
+        <v>177230</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>174812</v>
+        <v>173781</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>64902</v>
+        <v>66473</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>29182</v>
+        <v>29337</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>34787</v>
+        <v>32783</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>54459</v>
+        <v>53789</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>92188</v>
+        <v>92449</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>58315</v>
+        <v>57733</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>62235</v>
+        <v>62166</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>96394</v>
+        <v>98610</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>168843</v>
+        <v>170378</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>95212</v>
+        <v>94493</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>103692</v>
+        <v>105185</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>160608</v>
+        <v>160864</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>101631</v>
+        <v>101969</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>56062</v>
+        <v>55672</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>59795</v>
+        <v>60906</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>90003</v>
+        <v>90686</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>132997</v>
+        <v>133596</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>93122</v>
+        <v>91542</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>96339</v>
+        <v>98643</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>131833</v>
+        <v>134236</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>221266</v>
+        <v>225022</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>139896</v>
+        <v>138432</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>147007</v>
+        <v>147333</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>210705</v>
+        <v>212240</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>51699</v>
+        <v>50840</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>38304</v>
+        <v>39316</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>35864</v>
+        <v>35521</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>77720</v>
+        <v>77322</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>66822</v>
+        <v>65579</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>37862</v>
+        <v>37683</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>44415</v>
+        <v>45216</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>100150</v>
+        <v>97972</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>124859</v>
+        <v>126950</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>84727</v>
+        <v>81600</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>85534</v>
+        <v>87100</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>185966</v>
+        <v>185622</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>84154</v>
+        <v>83726</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>65236</v>
+        <v>67237</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>63133</v>
+        <v>62429</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>121867</v>
+        <v>120219</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>102369</v>
+        <v>101090</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>64193</v>
+        <v>64558</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>72419</v>
+        <v>74262</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>135403</v>
+        <v>134690</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>172026</v>
+        <v>171747</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>123433</v>
+        <v>122932</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>126127</v>
+        <v>127074</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>244869</v>
+        <v>245744</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>20673</v>
+        <v>20788</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17457</v>
+        <v>17692</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17318</v>
+        <v>16293</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>95065</v>
+        <v>95286</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>28431</v>
+        <v>29600</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>24592</v>
+        <v>24805</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>27293</v>
+        <v>27324</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>100255</v>
+        <v>100001</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>56440</v>
+        <v>55877</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>49087</v>
+        <v>48094</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>51026</v>
+        <v>50087</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>204343</v>
+        <v>204141</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>42625</v>
+        <v>42318</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>39657</v>
+        <v>41242</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>38278</v>
+        <v>38869</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>144324</v>
+        <v>143981</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>53176</v>
+        <v>53426</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>48865</v>
+        <v>49352</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>53918</v>
+        <v>53313</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>134252</v>
+        <v>136772</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>90047</v>
+        <v>87431</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>80308</v>
+        <v>81096</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>83361</v>
+        <v>82597</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>264027</v>
+        <v>266482</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>191537</v>
+        <v>188400</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>150399</v>
+        <v>149328</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>145235</v>
+        <v>141165</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>301020</v>
+        <v>303907</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>281407</v>
+        <v>282488</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>226941</v>
+        <v>227848</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>248231</v>
+        <v>246685</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>404316</v>
+        <v>404911</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>495568</v>
+        <v>491123</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>395062</v>
+        <v>391016</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>405144</v>
+        <v>407243</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>730117</v>
+        <v>732439</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>249492</v>
+        <v>247466</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>203951</v>
+        <v>203758</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>195681</v>
+        <v>194173</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>385334</v>
+        <v>381906</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>351913</v>
+        <v>350739</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>292388</v>
+        <v>296368</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>313056</v>
+        <v>311173</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>475227</v>
+        <v>475977</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>578500</v>
+        <v>578626</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>474753</v>
+        <v>474933</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>486777</v>
+        <v>486125</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>837119</v>
+        <v>838843</v>
       </c>
     </row>
     <row r="24">
